--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repositories\folder_icons_changer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E53F77-10EC-466A-B638-140770078AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B87B3B-4268-450A-A070-7FD038AEB2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,13 +255,13 @@
     <t>Saves</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
     <t>Searching</t>
+  </si>
+  <si>
+    <t>Code-</t>
   </si>
 </sst>
 </file>
@@ -827,9 +827,6 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,6 +843,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,14 +1065,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E7F78A8-C2B9-468B-9497-2CB852BA03F7}" name="Tabela13" displayName="Tabela13" ref="D2:F33" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10">
-  <autoFilter ref="D2:F33" xr:uid="{5E7F78A8-C2B9-468B-9497-2CB852BA03F7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E7F78A8-C2B9-468B-9497-2CB852BA03F7}" name="Tabela13" displayName="Tabela13" ref="D2:F35" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10">
+  <autoFilter ref="D2:F35" xr:uid="{5E7F78A8-C2B9-468B-9497-2CB852BA03F7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:F33">
-    <sortCondition ref="D4:D33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:F35">
+    <sortCondition ref="D6:D35"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4D15ABBD-A89A-469A-A0FF-6642F42E6F31}" name="Name" dataDxfId="8"/>
@@ -1420,31 +1420,31 @@
       <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="51" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1457,18 +1457,16 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>77</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E3" s="56"/>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1482,13 +1480,11 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>77</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E4" s="40"/>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>65</v>
@@ -1507,9 +1503,9 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="35"/>
+        <v>78</v>
+      </c>
+      <c r="E5" s="42"/>
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1532,9 +1528,9 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="36"/>
+        <v>73</v>
+      </c>
+      <c r="E6" s="43"/>
       <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1555,9 +1551,9 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="37"/>
+        <v>44</v>
+      </c>
+      <c r="E7" s="35"/>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1578,9 +1574,9 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="38"/>
+        <v>49</v>
+      </c>
+      <c r="E8" s="36"/>
       <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1601,9 +1597,9 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="39"/>
+        <v>53</v>
+      </c>
+      <c r="E9" s="37"/>
       <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1624,9 +1620,9 @@
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="40"/>
+        <v>54</v>
+      </c>
+      <c r="E10" s="38"/>
       <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1647,9 +1643,9 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="41"/>
+        <v>55</v>
+      </c>
+      <c r="E11" s="39"/>
       <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1666,17 +1662,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="E12" s="40"/>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>68</v>
@@ -1695,17 +1691,17 @@
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="42"/>
+        <v>46</v>
+      </c>
+      <c r="E13" s="41"/>
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="52" t="s">
+      <c r="H13" s="55"/>
+      <c r="I13" s="51" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1718,9 +1714,9 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="43"/>
+        <v>74</v>
+      </c>
+      <c r="E14" s="36"/>
       <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1737,9 +1733,9 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="44"/>
+        <v>57</v>
+      </c>
+      <c r="E15" s="42"/>
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1753,9 +1749,9 @@
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="45"/>
+        <v>58</v>
+      </c>
+      <c r="E16" s="43"/>
       <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1769,9 +1765,9 @@
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="37"/>
+        <v>59</v>
+      </c>
+      <c r="E17" s="44"/>
       <c r="F17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1787,9 +1783,9 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="40"/>
+        <v>60</v>
+      </c>
+      <c r="E18" s="45"/>
       <c r="F18" s="2" t="s">
         <v>4</v>
       </c>
@@ -1803,9 +1799,9 @@
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="38"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="37"/>
       <c r="F19" s="2" t="s">
         <v>4</v>
       </c>
@@ -1819,9 +1815,9 @@
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="46"/>
+        <v>51</v>
+      </c>
+      <c r="E20" s="40"/>
       <c r="F20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1835,13 +1831,11 @@
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>77</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E21" s="38"/>
       <c r="F21" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1853,13 +1847,11 @@
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>77</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E22" s="46"/>
       <c r="F22" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,9 +1865,9 @@
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="47"/>
+        <v>75</v>
+      </c>
+      <c r="E23" s="44"/>
       <c r="F23" s="2" t="s">
         <v>4</v>
       </c>
@@ -1889,9 +1881,9 @@
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="44"/>
+        <v>77</v>
+      </c>
+      <c r="E24" s="37"/>
       <c r="F24" s="2" t="s">
         <v>4</v>
       </c>
@@ -1905,9 +1897,9 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="39"/>
+        <v>48</v>
+      </c>
+      <c r="E25" s="47"/>
       <c r="F25" s="2" t="s">
         <v>4</v>
       </c>
@@ -1923,7 +1915,7 @@
       <c r="D26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1939,7 +1931,7 @@
       <c r="D27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1955,7 +1947,7 @@
       <c r="D28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="2" t="s">
         <v>4</v>
       </c>
@@ -1971,7 +1963,7 @@
       <c r="D29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="45"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="2" t="s">
         <v>4</v>
       </c>
@@ -1987,7 +1979,7 @@
       <c r="D30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="29"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
@@ -2005,7 +1997,7 @@
       <c r="D31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="38"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="2" t="s">
         <v>4</v>
       </c>
@@ -2021,12 +2013,12 @@
       <c r="D32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="40"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -2036,11 +2028,11 @@
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="52" t="s">
+      <c r="D33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2052,13 +2044,27 @@
       <c r="C34" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="40"/>
+      <c r="F34" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="32"/>
       <c r="C35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="54"/>
+      <c r="F35" s="51" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2081,11 +2087,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="52" t="s">
+      <c r="B38" s="53"/>
+      <c r="C38" s="51" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2095,12 +2101,12 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A14:F14 A1:I13 A15:I1048576">
+  <conditionalFormatting sqref="A1:I3 G4:I13 G15:I1048576 A4:F1048576">
     <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F33">
+  <conditionalFormatting sqref="F2:F35">
     <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
@@ -2116,7 +2122,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:F14 A1:I13 A15:I1048576">
+  <conditionalFormatting sqref="A1:I3 G4:I13 G15:I1048576 A4:F1048576">
     <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
